--- a/loaded_influencer_data/skyy.ugc/skyy.ugc_video.xlsx
+++ b/loaded_influencer_data/skyy.ugc/skyy.ugc_video.xlsx
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skyy.ugc/video/7480746619281919239</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13.20754716981132</v>
+        <v>13.42794759825328</v>
       </c>
       <c r="I2" t="n">
-        <v>11.20976692563818</v>
+        <v>11.24454148471616</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.997780244173141</v>
+        <v>2.183406113537118</v>
       </c>
       <c r="L2" t="n">
-        <v>1.109877913429523</v>
+        <v>1.091703056768559</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -557,13 +557,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skyy.ugc/video/7477041986697039112</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327</v>
+        <v>966</v>
       </c>
       <c r="C3" t="n">
         <v>45</v>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17.73700305810398</v>
+        <v>6.004140786749482</v>
       </c>
       <c r="I3" t="n">
-        <v>13.76146788990826</v>
+        <v>4.658385093167702</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.975535168195719</v>
+        <v>1.34575569358178</v>
       </c>
       <c r="L3" t="n">
-        <v>2.446483180428134</v>
+        <v>0.8281573498964804</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -608,16 +608,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skyy.ugc/photo/7475222656967560466</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -634,19 +634,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9.836065573770492</v>
+        <v>9.98185117967332</v>
       </c>
       <c r="I4" t="n">
-        <v>8.196721311475409</v>
+        <v>8.348457350272232</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.639344262295082</v>
+        <v>1.633393829401089</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7285974499089253</v>
+        <v>0.7259528130671506</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -658,13 +658,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skyy.ugc/photo/7468924877945179400</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="C5" t="n">
         <v>74</v>
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12.95399515738499</v>
+        <v>12.82973621103118</v>
       </c>
       <c r="I5" t="n">
-        <v>8.958837772397095</v>
+        <v>8.872901678657074</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.995157384987893</v>
+        <v>3.956834532374101</v>
       </c>
       <c r="L5" t="n">
-        <v>0.847457627118644</v>
+        <v>0.8393285371702638</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -708,13 +708,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skyy.ugc/video/7468192023179234567</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C6" t="n">
         <v>87</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>15.17647058823529</v>
+        <v>15.15863689776733</v>
       </c>
       <c r="I6" t="n">
-        <v>10.23529411764706</v>
+        <v>10.22326674500587</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.941176470588235</v>
+        <v>4.935370152761457</v>
       </c>
       <c r="L6" t="n">
-        <v>2.235294117647059</v>
+        <v>2.232667450058754</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -759,19 +759,19 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skyy.ugc/video/7467863634211802375</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="C7" t="n">
         <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -781,24 +781,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>This Colorgram Fruity Glass Tint in shade 05 (Sweet Persimmon) is so cute! Check out the other shades too!
-#colorgram</t>
+          <t>This Colorgram Fruity Glass Tint in shade 05 (Sweet Persimmon) is so cute! Check out the other shades too!</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.821428571428571</v>
+        <v>9.701492537313433</v>
       </c>
       <c r="I7" t="n">
-        <v>8.545918367346939</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.275510204081633</v>
+        <v>1.3681592039801</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7653061224489796</v>
+        <v>0.7462686567164178</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -810,13 +809,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skyy.ugc/photo/7467014836514262279</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3364</v>
+        <v>3367</v>
       </c>
       <c r="C8" t="n">
         <v>89</v>
@@ -837,19 +836,19 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3.953626634958383</v>
+        <v>3.950103950103951</v>
       </c>
       <c r="I8" t="n">
-        <v>2.645659928656361</v>
+        <v>2.643302643302643</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.307966706302021</v>
+        <v>1.306801306801307</v>
       </c>
       <c r="L8" t="n">
-        <v>0.267538644470868</v>
+        <v>0.2673002673002673</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -861,13 +860,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skyy.ugc/video/7466799916543708434</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C9" t="n">
         <v>44</v>
@@ -889,19 +888,19 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>22.55892255892256</v>
+        <v>22.48322147651007</v>
       </c>
       <c r="I9" t="n">
-        <v>14.81481481481481</v>
+        <v>14.76510067114094</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.744107744107744</v>
+        <v>7.718120805369128</v>
       </c>
       <c r="L9" t="n">
-        <v>2.02020202020202</v>
+        <v>2.013422818791946</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
